--- a/src/test/resources/Vytracktestdata.xlsx
+++ b/src/test/resources/Vytracktestdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamaldemir/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azatbayram/Desktop/Files/SourceCodeFiles/SeleniumWithTestNG/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C183250-0134-844D-AA10-75375100C696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAF0781-4EDC-5145-924C-1EA21FE4ED94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="QA1-all" sheetId="4" r:id="rId1"/>
@@ -18135,7 +18135,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18180,10 +18180,10 @@
         <v>1472</v>
       </c>
       <c r="C3" t="s">
-        <v>1169</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
-        <v>610</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -18194,10 +18194,10 @@
         <v>1472</v>
       </c>
       <c r="C4" t="s">
-        <v>498</v>
+        <v>304</v>
       </c>
       <c r="D4" t="s">
-        <v>1021</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -18208,10 +18208,10 @@
         <v>1472</v>
       </c>
       <c r="C5" t="s">
-        <v>1273</v>
+        <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>1274</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -18222,10 +18222,10 @@
         <v>1472</v>
       </c>
       <c r="C6" t="s">
-        <v>1275</v>
+        <v>304</v>
       </c>
       <c r="D6" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -18236,10 +18236,10 @@
         <v>1472</v>
       </c>
       <c r="C7" t="s">
-        <v>1276</v>
+        <v>304</v>
       </c>
       <c r="D7" t="s">
-        <v>796</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -18250,10 +18250,10 @@
         <v>1472</v>
       </c>
       <c r="C8" t="s">
-        <v>491</v>
+        <v>304</v>
       </c>
       <c r="D8" t="s">
-        <v>644</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -18264,10 +18264,10 @@
         <v>1472</v>
       </c>
       <c r="C9" t="s">
-        <v>1146</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
-        <v>586</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -18278,10 +18278,10 @@
         <v>1472</v>
       </c>
       <c r="C10" t="s">
-        <v>1374</v>
+        <v>304</v>
       </c>
       <c r="D10" t="s">
-        <v>1375</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -18292,10 +18292,10 @@
         <v>1472</v>
       </c>
       <c r="C11" t="s">
-        <v>1376</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
-        <v>1001</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -18306,10 +18306,10 @@
         <v>1472</v>
       </c>
       <c r="C12" t="s">
-        <v>1377</v>
+        <v>304</v>
       </c>
       <c r="D12" t="s">
-        <v>1378</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -18320,10 +18320,10 @@
         <v>1472</v>
       </c>
       <c r="C13" t="s">
-        <v>692</v>
+        <v>304</v>
       </c>
       <c r="D13" t="s">
-        <v>1379</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -18334,10 +18334,10 @@
         <v>1472</v>
       </c>
       <c r="C14" t="s">
-        <v>1380</v>
+        <v>304</v>
       </c>
       <c r="D14" t="s">
-        <v>1381</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
